--- a/df_list_20250410.xlsx
+++ b/df_list_20250410.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤정은책임\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B288E6-AA3E-4766-8F90-960C8887A196}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5371FB-623E-4504-8628-BD3E02660F79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8897" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1185,7 +1185,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1250,7 +1250,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1555,8 +1555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="H141" sqref="H141"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="J142" sqref="J142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -1601,7 +1601,7 @@
         <v>45756</v>
       </c>
       <c r="F2" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1621,7 +1621,7 @@
         <v>45756</v>
       </c>
       <c r="F3" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1641,7 +1641,7 @@
         <v>45756</v>
       </c>
       <c r="F4" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1661,7 +1661,7 @@
         <v>45757</v>
       </c>
       <c r="F5" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1681,7 +1681,7 @@
         <v>45757</v>
       </c>
       <c r="F6" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1701,7 +1701,7 @@
         <v>45757</v>
       </c>
       <c r="F7" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1721,7 +1721,7 @@
         <v>45757</v>
       </c>
       <c r="F8" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1741,7 +1741,7 @@
         <v>45756</v>
       </c>
       <c r="F9" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1761,7 +1761,7 @@
         <v>45756</v>
       </c>
       <c r="F10" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1781,7 +1781,7 @@
         <v>45756</v>
       </c>
       <c r="F11" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1801,7 +1801,7 @@
         <v>45755</v>
       </c>
       <c r="F12" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1821,7 +1821,7 @@
         <v>45755</v>
       </c>
       <c r="F13" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1841,7 +1841,7 @@
         <v>45755</v>
       </c>
       <c r="F14" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1861,7 +1861,7 @@
         <v>45757</v>
       </c>
       <c r="F15" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1881,7 +1881,7 @@
         <v>45757</v>
       </c>
       <c r="F16" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1901,7 +1901,7 @@
         <v>45757</v>
       </c>
       <c r="F17" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1921,7 +1921,7 @@
         <v>45757</v>
       </c>
       <c r="F18" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1941,7 +1941,7 @@
         <v>45756</v>
       </c>
       <c r="F19" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1961,7 +1961,7 @@
         <v>45756</v>
       </c>
       <c r="F20" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1981,7 +1981,7 @@
         <v>45756</v>
       </c>
       <c r="F21" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2001,7 +2001,7 @@
         <v>45756</v>
       </c>
       <c r="F22" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2021,7 +2021,7 @@
         <v>45755</v>
       </c>
       <c r="F23" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2041,7 +2041,7 @@
         <v>45757</v>
       </c>
       <c r="F24" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2061,7 +2061,7 @@
         <v>45757</v>
       </c>
       <c r="F25" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2081,7 +2081,7 @@
         <v>45757</v>
       </c>
       <c r="F26" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2101,7 +2101,7 @@
         <v>45757</v>
       </c>
       <c r="F27" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2121,7 +2121,7 @@
         <v>45755</v>
       </c>
       <c r="F28" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2141,7 +2141,7 @@
         <v>45757</v>
       </c>
       <c r="F29" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2161,7 +2161,7 @@
         <v>45756</v>
       </c>
       <c r="F30" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2181,7 +2181,7 @@
         <v>45756</v>
       </c>
       <c r="F31" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2201,7 +2201,7 @@
         <v>45756</v>
       </c>
       <c r="F32" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2221,7 +2221,7 @@
         <v>45757</v>
       </c>
       <c r="F33" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2241,7 +2241,7 @@
         <v>45756</v>
       </c>
       <c r="F34" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2261,7 +2261,7 @@
         <v>45756</v>
       </c>
       <c r="F35" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2281,7 +2281,7 @@
         <v>45756</v>
       </c>
       <c r="F36" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2301,7 +2301,7 @@
         <v>45756</v>
       </c>
       <c r="F37" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2321,7 +2321,7 @@
         <v>45755</v>
       </c>
       <c r="F38" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2341,7 +2341,7 @@
         <v>45756</v>
       </c>
       <c r="F39" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2361,7 +2361,7 @@
         <v>45757</v>
       </c>
       <c r="F40" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2381,7 +2381,7 @@
         <v>45757</v>
       </c>
       <c r="F41" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2401,7 +2401,7 @@
         <v>45755</v>
       </c>
       <c r="F42" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2421,7 +2421,7 @@
         <v>45756</v>
       </c>
       <c r="F43" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2441,7 +2441,7 @@
         <v>45756</v>
       </c>
       <c r="F44" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2461,7 +2461,7 @@
         <v>45756</v>
       </c>
       <c r="F45" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2481,7 +2481,7 @@
         <v>45755</v>
       </c>
       <c r="F46" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2501,7 +2501,7 @@
         <v>45757</v>
       </c>
       <c r="F47" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2521,7 +2521,7 @@
         <v>45756</v>
       </c>
       <c r="F48" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2541,7 +2541,7 @@
         <v>45755</v>
       </c>
       <c r="F49" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2561,7 +2561,7 @@
         <v>45755</v>
       </c>
       <c r="F50" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2581,7 +2581,7 @@
         <v>45757</v>
       </c>
       <c r="F51" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2601,7 +2601,7 @@
         <v>45756</v>
       </c>
       <c r="F52" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2621,7 +2621,7 @@
         <v>45756</v>
       </c>
       <c r="F53" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2641,7 +2641,7 @@
         <v>45756</v>
       </c>
       <c r="F54" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2661,7 +2661,7 @@
         <v>45756</v>
       </c>
       <c r="F55" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2681,7 +2681,7 @@
         <v>45757</v>
       </c>
       <c r="F56" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2701,7 +2701,7 @@
         <v>45756</v>
       </c>
       <c r="F57" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2721,7 +2721,7 @@
         <v>45756</v>
       </c>
       <c r="F58" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2741,7 +2741,7 @@
         <v>45757</v>
       </c>
       <c r="F59" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2761,7 +2761,7 @@
         <v>45757</v>
       </c>
       <c r="F60" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2781,7 +2781,7 @@
         <v>45756</v>
       </c>
       <c r="F61" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2801,7 +2801,7 @@
         <v>45756</v>
       </c>
       <c r="F62" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2821,7 +2821,7 @@
         <v>45757</v>
       </c>
       <c r="F63" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2841,7 +2841,7 @@
         <v>45756</v>
       </c>
       <c r="F64" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2861,7 +2861,7 @@
         <v>45756</v>
       </c>
       <c r="F65" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2881,7 +2881,7 @@
         <v>45755</v>
       </c>
       <c r="F66" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2901,7 +2901,7 @@
         <v>45756</v>
       </c>
       <c r="F67" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2921,7 +2921,7 @@
         <v>45755</v>
       </c>
       <c r="F68" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2941,7 +2941,7 @@
         <v>45755</v>
       </c>
       <c r="F69" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2961,7 +2961,7 @@
         <v>45756</v>
       </c>
       <c r="F70" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2981,7 +2981,7 @@
         <v>45755</v>
       </c>
       <c r="F71" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3001,7 +3001,7 @@
         <v>45756</v>
       </c>
       <c r="F72" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3021,7 +3021,7 @@
         <v>45756</v>
       </c>
       <c r="F73" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3041,7 +3041,7 @@
         <v>45756</v>
       </c>
       <c r="F74" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3061,7 +3061,7 @@
         <v>45757</v>
       </c>
       <c r="F75" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3081,7 +3081,7 @@
         <v>45757</v>
       </c>
       <c r="F76" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3101,7 +3101,7 @@
         <v>45757</v>
       </c>
       <c r="F77" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3121,7 +3121,7 @@
         <v>45757</v>
       </c>
       <c r="F78" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3141,7 +3141,7 @@
         <v>45757</v>
       </c>
       <c r="F79" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3161,7 +3161,7 @@
         <v>45755</v>
       </c>
       <c r="F80" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3181,7 +3181,7 @@
         <v>45756</v>
       </c>
       <c r="F81" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3201,7 +3201,7 @@
         <v>45756</v>
       </c>
       <c r="F82" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3221,7 +3221,7 @@
         <v>45755</v>
       </c>
       <c r="F83" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3241,7 +3241,7 @@
         <v>45756</v>
       </c>
       <c r="F84" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3261,7 +3261,7 @@
         <v>45756</v>
       </c>
       <c r="F85" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3281,7 +3281,7 @@
         <v>45755</v>
       </c>
       <c r="F86" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3301,7 +3301,7 @@
         <v>45755</v>
       </c>
       <c r="F87" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3321,7 +3321,7 @@
         <v>45756</v>
       </c>
       <c r="F88" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3341,7 +3341,7 @@
         <v>45756</v>
       </c>
       <c r="F89" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3361,7 +3361,7 @@
         <v>45757</v>
       </c>
       <c r="F90" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3381,7 +3381,7 @@
         <v>45757</v>
       </c>
       <c r="F91" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3401,7 +3401,7 @@
         <v>45757</v>
       </c>
       <c r="F92" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3421,7 +3421,7 @@
         <v>45757</v>
       </c>
       <c r="F93" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3441,7 +3441,7 @@
         <v>45757</v>
       </c>
       <c r="F94" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3461,7 +3461,7 @@
         <v>45756</v>
       </c>
       <c r="F95" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3481,7 +3481,7 @@
         <v>45757</v>
       </c>
       <c r="F96" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3501,7 +3501,7 @@
         <v>45756</v>
       </c>
       <c r="F97" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3521,7 +3521,7 @@
         <v>45755</v>
       </c>
       <c r="F98" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3541,7 +3541,7 @@
         <v>45756</v>
       </c>
       <c r="F99" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3561,7 +3561,7 @@
         <v>45755</v>
       </c>
       <c r="F100" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3581,7 +3581,7 @@
         <v>45757</v>
       </c>
       <c r="F101" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3601,7 +3601,7 @@
         <v>45756</v>
       </c>
       <c r="F102" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3621,7 +3621,7 @@
         <v>45756</v>
       </c>
       <c r="F103" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3641,7 +3641,7 @@
         <v>45755</v>
       </c>
       <c r="F104" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3661,7 +3661,7 @@
         <v>45755</v>
       </c>
       <c r="F105" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3681,7 +3681,7 @@
         <v>45756</v>
       </c>
       <c r="F106" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3701,7 +3701,7 @@
         <v>45755</v>
       </c>
       <c r="F107" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3721,7 +3721,7 @@
         <v>45757</v>
       </c>
       <c r="F108" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3741,7 +3741,7 @@
         <v>45756</v>
       </c>
       <c r="F109" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3761,7 +3761,7 @@
         <v>45755</v>
       </c>
       <c r="F110" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3781,7 +3781,7 @@
         <v>45756</v>
       </c>
       <c r="F111" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3801,7 +3801,7 @@
         <v>45756</v>
       </c>
       <c r="F112" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3821,7 +3821,7 @@
         <v>45756</v>
       </c>
       <c r="F113" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3841,7 +3841,7 @@
         <v>45757</v>
       </c>
       <c r="F114" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3861,7 +3861,7 @@
         <v>45757</v>
       </c>
       <c r="F115" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3881,7 +3881,7 @@
         <v>45755</v>
       </c>
       <c r="F116" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3901,7 +3901,7 @@
         <v>45757</v>
       </c>
       <c r="F117" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3921,7 +3921,7 @@
         <v>45756</v>
       </c>
       <c r="F118" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3941,7 +3941,7 @@
         <v>45757</v>
       </c>
       <c r="F119" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3961,7 +3961,7 @@
         <v>45756</v>
       </c>
       <c r="F120" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3981,7 +3981,7 @@
         <v>45755</v>
       </c>
       <c r="F121" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4001,7 +4001,7 @@
         <v>45756</v>
       </c>
       <c r="F122" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4021,7 +4021,7 @@
         <v>45756</v>
       </c>
       <c r="F123" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4041,7 +4041,7 @@
         <v>45757</v>
       </c>
       <c r="F124" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4061,7 +4061,7 @@
         <v>45757</v>
       </c>
       <c r="F125" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4081,7 +4081,7 @@
         <v>45757</v>
       </c>
       <c r="F126" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4101,7 +4101,7 @@
         <v>45757</v>
       </c>
       <c r="F127" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4121,7 +4121,7 @@
         <v>45757</v>
       </c>
       <c r="F128" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4141,7 +4141,7 @@
         <v>45757</v>
       </c>
       <c r="F129" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4161,7 +4161,7 @@
         <v>45757</v>
       </c>
       <c r="F130" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4181,7 +4181,7 @@
         <v>45757</v>
       </c>
       <c r="F131" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4201,7 +4201,7 @@
         <v>45757</v>
       </c>
       <c r="F132" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4221,7 +4221,7 @@
         <v>45757</v>
       </c>
       <c r="F133" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4241,7 +4241,7 @@
         <v>45757</v>
       </c>
       <c r="F134" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4261,7 +4261,7 @@
         <v>45756</v>
       </c>
       <c r="F135" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4281,7 +4281,7 @@
         <v>45757</v>
       </c>
       <c r="F136" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4301,7 +4301,7 @@
         <v>45757</v>
       </c>
       <c r="F137" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4321,7 +4321,7 @@
         <v>45755</v>
       </c>
       <c r="F138" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4341,7 +4341,7 @@
         <v>45756</v>
       </c>
       <c r="F139" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4361,7 +4361,7 @@
         <v>45755</v>
       </c>
       <c r="F140" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4381,7 +4381,7 @@
         <v>45755</v>
       </c>
       <c r="F141" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4401,7 +4401,7 @@
         <v>45756</v>
       </c>
       <c r="F142" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4421,7 +4421,7 @@
         <v>45756</v>
       </c>
       <c r="F143" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4441,7 +4441,7 @@
         <v>45755</v>
       </c>
       <c r="F144" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4461,7 +4461,7 @@
         <v>45757</v>
       </c>
       <c r="F145" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4481,7 +4481,7 @@
         <v>45756</v>
       </c>
       <c r="F146" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4501,7 +4501,7 @@
         <v>45757</v>
       </c>
       <c r="F147" s="2">
-        <v>45756.716331018521</v>
+        <v>45757.716331018521</v>
       </c>
     </row>
   </sheetData>
